--- a/Documenti/Step.xlsx
+++ b/Documenti/Step.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testa Lorenzo\Desktop\Progetto_Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5910"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>Criteri per la valutazione dei progetto di testing e verifica del codice</t>
   </si>
@@ -242,13 +242,16 @@
   </si>
   <si>
     <t>ct edge</t>
+  </si>
+  <si>
+    <t>tot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,14 +280,37 @@
       <charset val="1"/>
     </font>
     <font>
-      <strike/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,8 +329,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -512,12 +558,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -555,12 +635,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -597,6 +671,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -609,13 +706,26 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="5" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="5" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="4" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="4" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="Calcolo" xfId="4" builtinId="22"/>
+    <cellStyle name="Cella da controllare" xfId="5" builtinId="23"/>
     <cellStyle name="Hyperlink" xfId="1"/>
+    <cellStyle name="Neutrale" xfId="3" builtinId="28"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Valore valido" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -927,20 +1037,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.88671875" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="63.5546875" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="63.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -949,16 +1059,16 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>2</v>
@@ -969,11 +1079,11 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6">
         <f>SUM(D5:D12)</f>
@@ -983,96 +1093,96 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27">
         <v>2</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31">
         <v>1</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27">
         <v>2</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27">
         <v>1</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="10">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31">
         <v>2</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>16</v>
@@ -1088,7 +1198,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>18</v>
@@ -1104,7 +1214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>20</v>
@@ -1120,18 +1230,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="28"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6">
         <f>SUM(D15:D22)</f>
@@ -1139,44 +1249,44 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27">
         <v>0</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12">
+      <c r="C16" s="27"/>
+      <c r="D16" s="27">
         <v>2</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="14" t="s">
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>29</v>
@@ -1190,20 +1300,20 @@
       <c r="E18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
         <v>32</v>
@@ -1218,7 +1328,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
         <v>34</v>
@@ -1234,7 +1344,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
         <v>36</v>
@@ -1253,7 +1363,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>38</v>
@@ -1266,53 +1376,53 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="12"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="28"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6">
         <v>9</v>
       </c>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="41">
         <v>4</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="40" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="41">
         <v>0</v>
       </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E26" s="41"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
         <v>44</v>
@@ -1325,7 +1435,7 @@
       </c>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
         <v>45</v>
@@ -1338,48 +1448,49 @@
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="31">
         <v>1</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="32" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
+      <c r="F29" s="33"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16">
+      <c r="B30" s="37"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14">
         <v>8</v>
       </c>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="12">
         <v>1</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="15" t="s">
         <v>51</v>
       </c>
       <c r="C32" s="10" t="s">
@@ -1393,19 +1504,28 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20" t="s">
+    <row r="33" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="20">
         <v>3</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="21" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36">
+        <f>D30+D24+D14+D4</f>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1423,12 +1543,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010094F7FBFCAFA6D04F850CFD2A4FB324D2" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8540351e266455c58eb29e9cf1cd2550">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dae818eb-13b0-48fa-a69b-5cdf7005fee5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d0be7d0c4f47fc9b28be5e16312c450" ns2:_="">
     <xsd:import namespace="dae818eb-13b0-48fa-a69b-5cdf7005fee5"/>
@@ -1560,7 +1674,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1569,16 +1683,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{623BBB43-D87D-4BC2-9782-A528C20B84B2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD858321-34F8-427A-8C70-73709D9D5887}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1596,10 +1707,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{198E8A28-29B1-438B-A939-948B6C5CCCC2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{623BBB43-D87D-4BC2-9782-A528C20B84B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenti/Step.xlsx
+++ b/Documenti/Step.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testa Lorenzo\Desktop\Progetto_Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testa Lorenzo\Documents\GitHub\ProgettoTesting\Documenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>Criteri per la valutazione dei progetto di testing e verifica del codice</t>
   </si>
@@ -199,18 +199,9 @@
     <t>junit</t>
   </si>
   <si>
-    <t>eclemma</t>
-  </si>
-  <si>
     <t>code cover</t>
   </si>
   <si>
-    <t>mano</t>
-  </si>
-  <si>
-    <t>git lab</t>
-  </si>
-  <si>
     <t>circle ci</t>
   </si>
   <si>
@@ -223,15 +214,6 @@
     <t>pmd</t>
   </si>
   <si>
-    <t>findbugs</t>
-  </si>
-  <si>
-    <t>checkstyle</t>
-  </si>
-  <si>
-    <t>spotbugs</t>
-  </si>
-  <si>
     <t>renaming</t>
   </si>
   <si>
@@ -242,16 +224,13 @@
   </si>
   <si>
     <t>ct edge</t>
-  </si>
-  <si>
-    <t>tot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,21 +275,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,11 +308,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
@@ -589,15 +555,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -624,13 +589,7 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+      <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -641,26 +600,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -694,6 +635,34 @@
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="4" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="4" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="4"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -706,22 +675,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="5" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="5" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="4" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Calcolo" xfId="4" builtinId="22"/>
-    <cellStyle name="Cella da controllare" xfId="5" builtinId="23"/>
+  <cellStyles count="5">
+    <cellStyle name="Cella da controllare" xfId="4" builtinId="23"/>
     <cellStyle name="Hyperlink" xfId="1"/>
     <cellStyle name="Neutrale" xfId="3" builtinId="28"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1037,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,7 +1009,7 @@
     <col min="5" max="5" width="63.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,16 +1018,16 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>2</v>
@@ -1079,11 +1038,11 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6">
         <f>SUM(D5:D12)</f>
@@ -1093,155 +1052,146 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19">
         <v>2</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19">
         <v>1</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19">
         <v>2</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="29" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23">
+        <v>2</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27">
+    <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34">
         <v>1</v>
       </c>
-      <c r="E8" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="29" t="s">
+      <c r="E10" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31">
-        <v>2</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="33" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34">
+        <v>1</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23">
+        <v>1</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6">
         <f>SUM(D15:D22)</f>
@@ -1249,145 +1199,139 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19">
         <v>0</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19">
         <v>2</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="38" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="19">
         <v>2</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>65</v>
-      </c>
+      <c r="F18" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="19">
         <v>0</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23">
         <v>1</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="24" t="s">
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12">
+      <c r="C21" s="34"/>
+      <c r="D21" s="34">
         <v>1</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="F21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19">
         <v>1</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6">
         <v>9</v>
@@ -1396,136 +1340,126 @@
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="28">
         <v>4</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="27" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="28">
         <v>0</v>
       </c>
-      <c r="E26" s="41"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="28">
         <v>2</v>
       </c>
-      <c r="E27" s="7"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="19">
         <v>2</v>
       </c>
-      <c r="E28" s="7"/>
+      <c r="E28" s="29"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="19">
         <v>1</v>
       </c>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="33"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14">
+      <c r="B30" s="39"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12">
         <v>8</v>
       </c>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="12">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23">
         <v>1</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="23">
         <v>2</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="E32" s="26"/>
       <c r="F32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="31">
         <v>3</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="32" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36">
-        <f>D30+D24+D14+D4</f>
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1543,6 +1477,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010094F7FBFCAFA6D04F850CFD2A4FB324D2" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8540351e266455c58eb29e9cf1cd2550">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dae818eb-13b0-48fa-a69b-5cdf7005fee5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d0be7d0c4f47fc9b28be5e16312c450" ns2:_="">
     <xsd:import namespace="dae818eb-13b0-48fa-a69b-5cdf7005fee5"/>
@@ -1674,22 +1623,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{623BBB43-D87D-4BC2-9782-A528C20B84B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{198E8A28-29B1-438B-A939-948B6C5CCCC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD858321-34F8-427A-8C70-73709D9D5887}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1705,21 +1656,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{198E8A28-29B1-438B-A939-948B6C5CCCC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{623BBB43-D87D-4BC2-9782-A528C20B84B2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documenti/Step.xlsx
+++ b/Documenti/Step.xlsx
@@ -220,10 +220,10 @@
     <t>sonarcloud</t>
   </si>
   <si>
-    <t>sonarqube</t>
-  </si>
-  <si>
-    <t>ct edge</t>
+    <t>ctwedge</t>
+  </si>
+  <si>
+    <t>yakindu</t>
   </si>
 </sst>
 </file>
@@ -316,227 +316,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -554,17 +339,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -573,109 +477,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="4" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="4" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -998,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,456 +857,452 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6">
+      <c r="B4" s="32"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9">
         <f>SUM(D5:D12)</f>
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11">
         <v>2</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11">
         <v>1</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11">
         <v>2</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="22" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="33" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="33" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="22" t="s">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
         <v>1</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="7"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6">
+      <c r="B14" s="32"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9">
         <f>SUM(D15:D22)</f>
         <v>7</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11">
         <v>0</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="18" t="s">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11">
         <v>2</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="33" t="s">
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="33" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="18" t="s">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="11">
         <v>2</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="11">
         <v>0</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="22" t="s">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11">
         <v>1</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="33" t="s">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
         <v>1</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="35" t="s">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11">
+        <v>1</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9">
+        <v>9</v>
+      </c>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="11">
+        <v>4</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="11">
+        <v>2</v>
+      </c>
+      <c r="E27" s="26"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="11">
+        <v>2</v>
+      </c>
+      <c r="E28" s="26"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="11">
+        <v>1</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="34"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16">
+        <v>8</v>
+      </c>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11">
+        <v>1</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+      <c r="B32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="11">
+        <v>2</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19">
-        <v>1</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6">
-        <v>9</v>
-      </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="28" t="s">
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="28">
-        <v>4</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="28">
-        <v>0</v>
-      </c>
-      <c r="E26" s="28"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="28">
-        <v>2</v>
-      </c>
-      <c r="E27" s="28"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="19">
-        <v>2</v>
-      </c>
-      <c r="E28" s="29"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="19">
-        <v>1</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12">
-        <v>8</v>
-      </c>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23">
-        <v>1</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="23">
-        <v>2</v>
-      </c>
-      <c r="E32" s="26"/>
-      <c r="F32" t="s">
+      <c r="D33" s="29">
+        <v>3</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="31">
-        <v>3</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1477,12 +1320,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1491,7 +1328,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010094F7FBFCAFA6D04F850CFD2A4FB324D2" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8540351e266455c58eb29e9cf1cd2550">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dae818eb-13b0-48fa-a69b-5cdf7005fee5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d0be7d0c4f47fc9b28be5e16312c450" ns2:_="">
     <xsd:import namespace="dae818eb-13b0-48fa-a69b-5cdf7005fee5"/>
@@ -1623,16 +1460,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{623BBB43-D87D-4BC2-9782-A528C20B84B2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{198E8A28-29B1-438B-A939-948B6C5CCCC2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1640,7 +1474,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD858321-34F8-427A-8C70-73709D9D5887}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1656,4 +1490,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{623BBB43-D87D-4BC2-9782-A528C20B84B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documenti/Step.xlsx
+++ b/Documenti/Step.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testa Lorenzo\Documents\GitHub\ProgettoTesting\Documenti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testa Lorenzo\Desktop\Progetto_Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
   <si>
     <t>Criteri per la valutazione dei progetto di testing e verifica del codice</t>
   </si>
@@ -218,6 +218,15 @@
   </si>
   <si>
     <t>sonarcloud</t>
+  </si>
+  <si>
+    <t>tot</t>
+  </si>
+  <si>
+    <t>fatti</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
   <si>
     <t>ctwedge</t>
@@ -427,7 +436,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -525,6 +534,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Cella da controllare" xfId="4" builtinId="23"/>
@@ -843,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,17 +1019,17 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11">
         <v>1</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="35" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1284,7 +1294,7 @@
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1302,7 +1312,34 @@
         <v>53</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36">
+        <f>SUM(D5:D12,D15:D22,D25:D29,D31:D33)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>63</v>
+      </c>
+      <c r="D38">
+        <f>SUM(D5:D8,D15:D20,D25:D29,D22,D31:D33,D12)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40">
+        <f>D38/D36*100</f>
+        <v>84.848484848484844</v>
       </c>
     </row>
   </sheetData>
@@ -1320,6 +1357,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1328,7 +1371,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010094F7FBFCAFA6D04F850CFD2A4FB324D2" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8540351e266455c58eb29e9cf1cd2550">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dae818eb-13b0-48fa-a69b-5cdf7005fee5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d0be7d0c4f47fc9b28be5e16312c450" ns2:_="">
     <xsd:import namespace="dae818eb-13b0-48fa-a69b-5cdf7005fee5"/>
@@ -1460,13 +1503,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{623BBB43-D87D-4BC2-9782-A528C20B84B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{198E8A28-29B1-438B-A939-948B6C5CCCC2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1474,7 +1520,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD858321-34F8-427A-8C70-73709D9D5887}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1490,13 +1536,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{623BBB43-D87D-4BC2-9782-A528C20B84B2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>